--- a/Inputs_data/NYCTRS_MemberData_AV2016.xlsx
+++ b/Inputs_data/NYCTRS_MemberData_AV2016.xlsx
@@ -3,26 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B14E13E-C04F-4E97-B84A-012C6E2369AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C4514-0954-4A72-B7C6-778822800CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="770" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
-    <sheet name="Actives_AllTiers" sheetId="3" r:id="rId2"/>
-    <sheet name="Actives_Tier1" sheetId="41" r:id="rId3"/>
-    <sheet name="Actives_Tier2" sheetId="42" r:id="rId4"/>
-    <sheet name="Actives_Tier4" sheetId="44" r:id="rId5"/>
-    <sheet name="Actives_Tier6" sheetId="43" r:id="rId6"/>
-    <sheet name="Retirees" sheetId="38" r:id="rId7"/>
-    <sheet name="Disabled" sheetId="39" r:id="rId8"/>
-    <sheet name="Beneficiaries" sheetId="31" r:id="rId9"/>
-    <sheet name="Actives_raw" sheetId="34" r:id="rId10"/>
-    <sheet name="Retirees_raw" sheetId="30" r:id="rId11"/>
-    <sheet name="Disabled_raw" sheetId="32" r:id="rId12"/>
-    <sheet name="Beneficiaries_raw" sheetId="45" r:id="rId13"/>
-    <sheet name="TDAwithDrawal_Raw" sheetId="47" r:id="rId14"/>
-    <sheet name="ShareTier_Raw" sheetId="46" r:id="rId15"/>
+    <sheet name="Actives_CAFR17" sheetId="49" r:id="rId2"/>
+    <sheet name="Actives_AllTiers" sheetId="3" r:id="rId3"/>
+    <sheet name="Actives_CAFR17_raw" sheetId="48" r:id="rId4"/>
+    <sheet name="Actives_Tier1" sheetId="41" r:id="rId5"/>
+    <sheet name="Actives_Tier2" sheetId="42" r:id="rId6"/>
+    <sheet name="Actives_Tier4" sheetId="44" r:id="rId7"/>
+    <sheet name="Actives_Tier6" sheetId="43" r:id="rId8"/>
+    <sheet name="Retirees" sheetId="38" r:id="rId9"/>
+    <sheet name="Disabled" sheetId="39" r:id="rId10"/>
+    <sheet name="Beneficiaries" sheetId="31" r:id="rId11"/>
+    <sheet name="Actives_raw" sheetId="34" r:id="rId12"/>
+    <sheet name="Retirees_raw" sheetId="30" r:id="rId13"/>
+    <sheet name="Disabled_raw" sheetId="32" r:id="rId14"/>
+    <sheet name="Beneficiaries_raw" sheetId="45" r:id="rId15"/>
+    <sheet name="TDAwithdrawal_Raw" sheetId="47" r:id="rId16"/>
+    <sheet name="ShareTier_Raw" sheetId="46" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="241">
   <si>
     <t>TOC</t>
   </si>
@@ -1896,6 +1898,129 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>SCHEDULE 6: TABLE OF AVERAGE SALARIES OF IN-SERVICE MEMBERS—QPP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of  Average
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>In-Service Members*  Salaries*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">WOMEN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of  Average
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>In-Service Members*  Salaries*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>24&amp; under</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>25-29</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>70 &amp; over</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>TOTAL ANNUAL SALARIES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>$2,219,964,658  TOTAL ANNUAL SALARIES</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -1903,9 +2028,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;&quot;$&quot;\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -2111,7 +2236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2188,6 +2313,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2197,7 +2410,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2357,7 +2570,7 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2390,28 +2603,347 @@
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2419,327 +2951,92 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3244,11 +3541,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:J50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="157" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="156" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="157" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="156" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="168" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="91">
+        <v>0</v>
+      </c>
+      <c r="E10" s="160" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="158" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="91">
+        <v>0</v>
+      </c>
+      <c r="H10" s="160" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="94">
+        <v>0</v>
+      </c>
+      <c r="E11" s="162" t="s">
+        <v>223</v>
+      </c>
+      <c r="F11" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="94">
+        <v>0</v>
+      </c>
+      <c r="H11" s="162" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="94">
+        <v>2</v>
+      </c>
+      <c r="E12" s="170">
+        <v>17399</v>
+      </c>
+      <c r="F12" s="169" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="94">
+        <v>9</v>
+      </c>
+      <c r="H12" s="170">
+        <v>24612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="94">
+        <v>10</v>
+      </c>
+      <c r="E13" s="161">
+        <v>27738</v>
+      </c>
+      <c r="F13" s="169" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="94">
+        <v>28</v>
+      </c>
+      <c r="H13" s="161">
+        <v>21692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="94">
+        <v>21</v>
+      </c>
+      <c r="E14" s="161">
+        <v>25978</v>
+      </c>
+      <c r="F14" s="169" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="94">
+        <v>84</v>
+      </c>
+      <c r="H14" s="161">
+        <v>24495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="135" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="94">
+        <v>47</v>
+      </c>
+      <c r="E15" s="161">
+        <v>26372</v>
+      </c>
+      <c r="F15" s="169" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="94">
+        <v>177</v>
+      </c>
+      <c r="H15" s="161">
+        <v>26020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="135" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="94">
+        <v>74</v>
+      </c>
+      <c r="E16" s="161">
+        <v>27179</v>
+      </c>
+      <c r="F16" s="169" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="94">
+        <v>287</v>
+      </c>
+      <c r="H16" s="161">
+        <v>23626</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="94">
+        <v>95</v>
+      </c>
+      <c r="E17" s="161">
+        <v>23070</v>
+      </c>
+      <c r="F17" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="94">
+        <v>399</v>
+      </c>
+      <c r="H17" s="161">
+        <v>21769</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="94">
+        <v>143</v>
+      </c>
+      <c r="E18" s="161">
+        <v>25466</v>
+      </c>
+      <c r="F18" s="169" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="94">
+        <v>418</v>
+      </c>
+      <c r="H18" s="161">
+        <v>21873</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="94">
+        <v>98</v>
+      </c>
+      <c r="E19" s="161">
+        <v>24822</v>
+      </c>
+      <c r="F19" s="169" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="94">
+        <v>268</v>
+      </c>
+      <c r="H19" s="161">
+        <v>19749</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="135" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="94">
+        <v>41</v>
+      </c>
+      <c r="E20" s="161">
+        <v>21977</v>
+      </c>
+      <c r="F20" s="169" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" s="94">
+        <v>145</v>
+      </c>
+      <c r="H20" s="161">
+        <v>16070</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="135" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="94">
+        <v>19</v>
+      </c>
+      <c r="E21" s="161">
+        <v>19620</v>
+      </c>
+      <c r="F21" s="169" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="94">
+        <v>72</v>
+      </c>
+      <c r="H21" s="161">
+        <v>15890</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="135" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="94">
+        <v>13</v>
+      </c>
+      <c r="E22" s="161">
+        <v>23952</v>
+      </c>
+      <c r="F22" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="94">
+        <v>42</v>
+      </c>
+      <c r="H22" s="161">
+        <v>17635</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="171" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="163">
+        <v>7</v>
+      </c>
+      <c r="E23" s="164">
+        <v>31175</v>
+      </c>
+      <c r="F23" s="166" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="163">
+        <v>42</v>
+      </c>
+      <c r="H23" s="164">
+        <v>19942</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="173">
+        <v>570</v>
+      </c>
+      <c r="E25" s="174">
+        <v>24873</v>
+      </c>
+      <c r="F25" s="152" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="175">
+        <v>1971</v>
+      </c>
+      <c r="H25" s="176">
+        <v>21535</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+    </row>
+    <row r="27" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="183" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="183"/>
+      <c r="E27" s="184">
+        <v>14177803</v>
+      </c>
+      <c r="F27" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="186"/>
+      <c r="H27" s="178">
+        <v>42446261</v>
+      </c>
+      <c r="J27" s="185">
+        <f>E27+H27</f>
+        <v>56624064</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="C29" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="155"/>
+      <c r="F31" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="155" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="155"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="179" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" s="91">
+        <v>0</v>
+      </c>
+      <c r="E32" s="160" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="179" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="91">
+        <v>0</v>
+      </c>
+      <c r="H32" s="160" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="94">
+        <v>1</v>
+      </c>
+      <c r="E33" s="170">
+        <v>34828</v>
+      </c>
+      <c r="F33" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="94">
+        <v>1</v>
+      </c>
+      <c r="H33" s="170">
+        <v>38810</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="94">
+        <v>1</v>
+      </c>
+      <c r="E34" s="161">
+        <v>23307</v>
+      </c>
+      <c r="F34" s="180" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="94">
+        <v>6</v>
+      </c>
+      <c r="H34" s="161">
+        <v>37709</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="94">
+        <v>6</v>
+      </c>
+      <c r="E35" s="161">
+        <v>47359</v>
+      </c>
+      <c r="F35" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="94">
+        <v>8</v>
+      </c>
+      <c r="H35" s="161">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="94">
+        <v>4</v>
+      </c>
+      <c r="E36" s="161">
+        <v>51867</v>
+      </c>
+      <c r="F36" s="180" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="94">
+        <v>13</v>
+      </c>
+      <c r="H36" s="161">
+        <v>47661</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="94">
+        <v>5</v>
+      </c>
+      <c r="E37" s="161">
+        <v>46164</v>
+      </c>
+      <c r="F37" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="94">
+        <v>34</v>
+      </c>
+      <c r="H37" s="161">
+        <v>42108</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="94">
+        <v>13</v>
+      </c>
+      <c r="E38" s="161">
+        <v>48918</v>
+      </c>
+      <c r="F38" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="94">
+        <v>61</v>
+      </c>
+      <c r="H38" s="161">
+        <v>37604</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="94">
+        <v>29</v>
+      </c>
+      <c r="E39" s="161">
+        <v>52887</v>
+      </c>
+      <c r="F39" s="180" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="94">
+        <v>87</v>
+      </c>
+      <c r="H39" s="161">
+        <v>40786</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="180" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="94">
+        <v>61</v>
+      </c>
+      <c r="E40" s="161">
+        <v>44234</v>
+      </c>
+      <c r="F40" s="180" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="94">
+        <v>128</v>
+      </c>
+      <c r="H40" s="161">
+        <v>40896</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="180" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="94">
+        <v>43</v>
+      </c>
+      <c r="E41" s="161">
+        <v>46917</v>
+      </c>
+      <c r="F41" s="180" t="s">
+        <v>224</v>
+      </c>
+      <c r="G41" s="94">
+        <v>94</v>
+      </c>
+      <c r="H41" s="161">
+        <v>39490</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="180" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="94">
+        <v>23</v>
+      </c>
+      <c r="E42" s="161">
+        <v>47347</v>
+      </c>
+      <c r="F42" s="180" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="94">
+        <v>38</v>
+      </c>
+      <c r="H42" s="161">
+        <v>35552</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="180" t="s">
+        <v>226</v>
+      </c>
+      <c r="D43" s="94">
+        <v>12</v>
+      </c>
+      <c r="E43" s="161">
+        <v>40823</v>
+      </c>
+      <c r="F43" s="180" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="94">
+        <v>32</v>
+      </c>
+      <c r="H43" s="161">
+        <v>32730</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="180" t="s">
+        <v>227</v>
+      </c>
+      <c r="D44" s="94">
+        <v>8</v>
+      </c>
+      <c r="E44" s="161">
+        <v>40246</v>
+      </c>
+      <c r="F44" s="180" t="s">
+        <v>227</v>
+      </c>
+      <c r="G44" s="94">
+        <v>17</v>
+      </c>
+      <c r="H44" s="161">
+        <v>38458</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="167" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="163">
+        <v>6</v>
+      </c>
+      <c r="E45" s="164">
+        <v>42004</v>
+      </c>
+      <c r="F45" s="167" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" s="163">
+        <v>14</v>
+      </c>
+      <c r="H45" s="164">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C46" s="172"/>
+      <c r="D46" s="172"/>
+      <c r="E46" s="172"/>
+      <c r="F46" s="172"/>
+      <c r="G46" s="172"/>
+      <c r="H46" s="172"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="181">
+        <v>212</v>
+      </c>
+      <c r="E47" s="174">
+        <v>46315</v>
+      </c>
+      <c r="F47" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="182">
+        <v>533</v>
+      </c>
+      <c r="H47" s="176">
+        <v>39574</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C48" s="177"/>
+      <c r="D48" s="177"/>
+      <c r="E48" s="177"/>
+      <c r="F48" s="177"/>
+      <c r="G48" s="177"/>
+      <c r="H48" s="177"/>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="D49" s="186"/>
+      <c r="E49" s="130">
+        <v>9818763</v>
+      </c>
+      <c r="F49" s="186" t="s">
+        <v>229</v>
+      </c>
+      <c r="G49" s="186"/>
+      <c r="H49" s="178">
+        <v>21092711</v>
+      </c>
+      <c r="J49" s="185">
+        <f>E49+H49</f>
+        <v>30911474</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" s="185">
+        <f>J27+J49</f>
+        <v>87535538</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F27:G27"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="156" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="157" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="156" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="156" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="157" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="156" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="158" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="91">
+        <v>5</v>
+      </c>
+      <c r="E8" s="159">
+        <v>22279</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="91">
+        <v>6</v>
+      </c>
+      <c r="H8" s="159">
+        <v>22348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="94">
+        <v>4</v>
+      </c>
+      <c r="E9" s="161">
+        <v>7527</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="94">
+        <v>8</v>
+      </c>
+      <c r="H9" s="161">
+        <v>23749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="94">
+        <v>11</v>
+      </c>
+      <c r="E10" s="161">
+        <v>19875</v>
+      </c>
+      <c r="F10" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="94">
+        <v>12</v>
+      </c>
+      <c r="H10" s="161">
+        <v>18579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="132" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="94">
+        <v>10</v>
+      </c>
+      <c r="E11" s="161">
+        <v>23717</v>
+      </c>
+      <c r="F11" s="162" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="94">
+        <v>18</v>
+      </c>
+      <c r="H11" s="161">
+        <v>18950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="94">
+        <v>17</v>
+      </c>
+      <c r="E12" s="161">
+        <v>14713</v>
+      </c>
+      <c r="F12" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="94">
+        <v>18</v>
+      </c>
+      <c r="H12" s="161">
+        <v>17778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="94">
+        <v>26</v>
+      </c>
+      <c r="E13" s="161">
+        <v>11121</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="94">
+        <v>55</v>
+      </c>
+      <c r="H13" s="161">
+        <v>17735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="94">
+        <v>34</v>
+      </c>
+      <c r="E14" s="161">
+        <v>19499</v>
+      </c>
+      <c r="F14" s="162" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="94">
+        <v>86</v>
+      </c>
+      <c r="H14" s="161">
+        <v>23305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="132" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="94">
+        <v>58</v>
+      </c>
+      <c r="E15" s="161">
+        <v>23496</v>
+      </c>
+      <c r="F15" s="162" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="94">
+        <v>124</v>
+      </c>
+      <c r="H15" s="161">
+        <v>32978</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="94">
+        <v>129</v>
+      </c>
+      <c r="E16" s="161">
+        <v>31148</v>
+      </c>
+      <c r="F16" s="162" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="94">
+        <v>311</v>
+      </c>
+      <c r="H16" s="161">
+        <v>40331</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="94">
+        <v>188</v>
+      </c>
+      <c r="E17" s="161">
+        <v>35706</v>
+      </c>
+      <c r="F17" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="94">
+        <v>461</v>
+      </c>
+      <c r="H17" s="161">
+        <v>40254</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="94">
+        <v>165</v>
+      </c>
+      <c r="E18" s="161">
+        <v>28365</v>
+      </c>
+      <c r="F18" s="162" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="94">
+        <v>455</v>
+      </c>
+      <c r="H18" s="161">
+        <v>38767</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="132" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="94">
+        <v>170</v>
+      </c>
+      <c r="E19" s="161">
+        <v>26154</v>
+      </c>
+      <c r="F19" s="162" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="94">
+        <v>518</v>
+      </c>
+      <c r="H19" s="161">
+        <v>36137</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="132" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="94">
+        <v>195</v>
+      </c>
+      <c r="E20" s="161">
+        <v>25090</v>
+      </c>
+      <c r="F20" s="162" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="94">
+        <v>517</v>
+      </c>
+      <c r="H20" s="161">
+        <v>33809</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" s="163">
+        <v>255</v>
+      </c>
+      <c r="E21" s="164">
+        <v>25332</v>
+      </c>
+      <c r="F21" s="167" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="163">
+        <v>605</v>
+      </c>
+      <c r="H21" s="164">
+        <v>29337</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="141">
+        <v>1267</v>
+      </c>
+      <c r="E22" s="142">
+        <v>27128</v>
+      </c>
+      <c r="F22" s="140" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="141">
+        <v>3194</v>
+      </c>
+      <c r="H22" s="142">
+        <v>34741</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+    </row>
+    <row r="24" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="165"/>
+      <c r="E24" s="142">
+        <v>34371598</v>
+      </c>
+      <c r="F24" s="165" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="165"/>
+      <c r="H24" s="142">
+        <v>110963139</v>
+      </c>
+      <c r="J24" s="84">
+        <f>SUM(E24,H24)</f>
+        <v>145334737</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK70"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9:X19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8233,11 +9757,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -8636,7 +10160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
@@ -8691,294 +10215,294 @@
       <c r="C6" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="97" t="s">
         <v>123</v>
       </c>
       <c r="E6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="103" t="s">
+      <c r="F6" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="103"/>
+      <c r="G6" s="187"/>
     </row>
     <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="105">
-        <v>0</v>
-      </c>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="99">
+        <v>0</v>
+      </c>
+      <c r="D7" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="108">
-        <v>0</v>
-      </c>
-      <c r="G7" s="109" t="s">
+      <c r="F7" s="102">
+        <v>0</v>
+      </c>
+      <c r="G7" s="103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="111">
-        <v>0</v>
-      </c>
-      <c r="D8" s="112" t="s">
+      <c r="C8" s="105">
+        <v>0</v>
+      </c>
+      <c r="D8" s="106" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="114">
-        <v>0</v>
-      </c>
-      <c r="G8" s="113" t="s">
+      <c r="F8" s="108">
+        <v>0</v>
+      </c>
+      <c r="G8" s="107" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="104" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="105">
         <v>2</v>
       </c>
-      <c r="D9" s="115">
+      <c r="D9" s="109">
         <v>17399</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="F9" s="114">
+      <c r="F9" s="108">
         <v>9</v>
       </c>
-      <c r="G9" s="116">
+      <c r="G9" s="110">
         <v>24612</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="105">
         <v>10</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="111">
         <v>27738</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="114">
+      <c r="F10" s="108">
         <v>28</v>
       </c>
-      <c r="G10" s="118">
+      <c r="G10" s="112">
         <v>21692</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="105">
         <v>21</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="111">
         <v>25978</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="F11" s="114">
+      <c r="F11" s="108">
         <v>84</v>
       </c>
-      <c r="G11" s="118">
+      <c r="G11" s="112">
         <v>24495</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="105">
         <v>47</v>
       </c>
-      <c r="D12" s="117">
+      <c r="D12" s="111">
         <v>26372</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="114">
+      <c r="F12" s="108">
         <v>177</v>
       </c>
-      <c r="G12" s="118">
+      <c r="G12" s="112">
         <v>26020</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="105">
         <v>74</v>
       </c>
-      <c r="D13" s="117">
+      <c r="D13" s="111">
         <v>27179</v>
       </c>
-      <c r="E13" s="113" t="s">
+      <c r="E13" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="114">
+      <c r="F13" s="108">
         <v>287</v>
       </c>
-      <c r="G13" s="118">
+      <c r="G13" s="112">
         <v>23626</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="104" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="105">
         <v>95</v>
       </c>
-      <c r="D14" s="117">
+      <c r="D14" s="111">
         <v>23070</v>
       </c>
-      <c r="E14" s="113" t="s">
+      <c r="E14" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="F14" s="114">
+      <c r="F14" s="108">
         <v>399</v>
       </c>
-      <c r="G14" s="118">
+      <c r="G14" s="112">
         <v>21769</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="104" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="105">
         <v>143</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="111">
         <v>25466</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="F15" s="114">
+      <c r="F15" s="108">
         <v>418</v>
       </c>
-      <c r="G15" s="118">
+      <c r="G15" s="112">
         <v>21873</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="105">
         <v>98</v>
       </c>
-      <c r="D16" s="117">
+      <c r="D16" s="111">
         <v>24822</v>
       </c>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="F16" s="114">
+      <c r="F16" s="108">
         <v>268</v>
       </c>
-      <c r="G16" s="118">
+      <c r="G16" s="112">
         <v>19749</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="104" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="105">
         <v>41</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="111">
         <v>21977</v>
       </c>
-      <c r="E17" s="113" t="s">
+      <c r="E17" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="114">
+      <c r="F17" s="108">
         <v>145</v>
       </c>
-      <c r="G17" s="118">
+      <c r="G17" s="112">
         <v>16070</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="105">
         <v>19</v>
       </c>
-      <c r="D18" s="117">
+      <c r="D18" s="111">
         <v>19620</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="114">
+      <c r="F18" s="108">
         <v>72</v>
       </c>
-      <c r="G18" s="118">
+      <c r="G18" s="112">
         <v>15890</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="104" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="105">
         <v>13</v>
       </c>
-      <c r="D19" s="117">
+      <c r="D19" s="111">
         <v>23952</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="114">
+      <c r="F19" s="108">
         <v>42</v>
       </c>
-      <c r="G19" s="118">
+      <c r="G19" s="112">
         <v>17635</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="120">
+      <c r="C20" s="114">
         <v>7</v>
       </c>
-      <c r="D20" s="121">
+      <c r="D20" s="115">
         <v>31175</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="123">
+      <c r="F20" s="117">
         <v>42</v>
       </c>
-      <c r="G20" s="124">
+      <c r="G20" s="118">
         <v>19942</v>
       </c>
     </row>
@@ -8991,44 +10515,44 @@
       <c r="G21" s="79"/>
     </row>
     <row r="22" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="110" t="s">
+      <c r="B22" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="111">
+      <c r="C22" s="105">
         <v>570</v>
       </c>
-      <c r="D22" s="115">
+      <c r="D22" s="109">
         <v>24873</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="F22" s="125">
+      <c r="F22" s="119">
         <v>1971</v>
       </c>
-      <c r="G22" s="116">
+      <c r="G22" s="110">
         <v>21535</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="188" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="127" t="s">
+      <c r="C24" s="188"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="189" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="127"/>
-      <c r="G24" s="128">
+      <c r="F24" s="189"/>
+      <c r="G24" s="120">
         <v>42446261</v>
       </c>
     </row>
@@ -9046,295 +10570,295 @@
       <c r="B30" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="187" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="103"/>
+      <c r="D30" s="187"/>
       <c r="E30" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="129" t="s">
+      <c r="F30" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="G30" s="129"/>
+      <c r="G30" s="190"/>
     </row>
     <row r="31" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="108">
-        <v>0</v>
-      </c>
-      <c r="D31" s="106" t="s">
+      <c r="C31" s="102">
+        <v>0</v>
+      </c>
+      <c r="D31" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="107" t="s">
+      <c r="E31" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="130">
-        <v>0</v>
-      </c>
-      <c r="G31" s="109" t="s">
+      <c r="F31" s="121">
+        <v>0</v>
+      </c>
+      <c r="G31" s="103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="114">
+      <c r="C32" s="108">
         <v>1</v>
       </c>
-      <c r="D32" s="115">
+      <c r="D32" s="109">
         <v>34828</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="107" t="s">
         <v>160</v>
       </c>
-      <c r="F32" s="131">
+      <c r="F32" s="122">
         <v>1</v>
       </c>
-      <c r="G32" s="116">
+      <c r="G32" s="110">
         <v>38810</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="114">
+      <c r="C33" s="108">
         <v>1</v>
       </c>
-      <c r="D33" s="117">
+      <c r="D33" s="111">
         <v>23307</v>
       </c>
-      <c r="E33" s="113" t="s">
+      <c r="E33" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="F33" s="131">
+      <c r="F33" s="122">
         <v>6</v>
       </c>
-      <c r="G33" s="118">
+      <c r="G33" s="112">
         <v>37709</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="114">
+      <c r="C34" s="108">
         <v>6</v>
       </c>
-      <c r="D34" s="117">
+      <c r="D34" s="111">
         <v>47359</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="F34" s="131">
+      <c r="F34" s="122">
         <v>8</v>
       </c>
-      <c r="G34" s="118">
+      <c r="G34" s="112">
         <v>45736</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="114">
+      <c r="C35" s="108">
         <v>4</v>
       </c>
-      <c r="D35" s="117">
+      <c r="D35" s="111">
         <v>51867</v>
       </c>
-      <c r="E35" s="113" t="s">
+      <c r="E35" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="F35" s="131">
+      <c r="F35" s="122">
         <v>13</v>
       </c>
-      <c r="G35" s="118">
+      <c r="G35" s="112">
         <v>47661</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="114">
+      <c r="C36" s="108">
         <v>5</v>
       </c>
-      <c r="D36" s="117">
+      <c r="D36" s="111">
         <v>46164</v>
       </c>
-      <c r="E36" s="113" t="s">
+      <c r="E36" s="107" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="131">
+      <c r="F36" s="122">
         <v>34</v>
       </c>
-      <c r="G36" s="118">
+      <c r="G36" s="112">
         <v>42108</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="114">
+      <c r="C37" s="108">
         <v>13</v>
       </c>
-      <c r="D37" s="117">
+      <c r="D37" s="111">
         <v>48918</v>
       </c>
-      <c r="E37" s="113" t="s">
+      <c r="E37" s="107" t="s">
         <v>165</v>
       </c>
-      <c r="F37" s="131">
+      <c r="F37" s="122">
         <v>61</v>
       </c>
-      <c r="G37" s="118">
+      <c r="G37" s="112">
         <v>37604</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B38" s="113" t="s">
+      <c r="B38" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="114">
+      <c r="C38" s="108">
         <v>29</v>
       </c>
-      <c r="D38" s="117">
+      <c r="D38" s="111">
         <v>52887</v>
       </c>
-      <c r="E38" s="113" t="s">
+      <c r="E38" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="F38" s="131">
+      <c r="F38" s="122">
         <v>87</v>
       </c>
-      <c r="G38" s="118">
+      <c r="G38" s="112">
         <v>40786</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="113" t="s">
+      <c r="B39" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="114">
+      <c r="C39" s="108">
         <v>61</v>
       </c>
-      <c r="D39" s="117">
+      <c r="D39" s="111">
         <v>44234</v>
       </c>
-      <c r="E39" s="113" t="s">
+      <c r="E39" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="F39" s="131">
+      <c r="F39" s="122">
         <v>128</v>
       </c>
-      <c r="G39" s="118">
+      <c r="G39" s="112">
         <v>40896</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="113" t="s">
+      <c r="B40" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="114">
+      <c r="C40" s="108">
         <v>43</v>
       </c>
-      <c r="D40" s="117">
+      <c r="D40" s="111">
         <v>46917</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="131">
+      <c r="F40" s="122">
         <v>94</v>
       </c>
-      <c r="G40" s="118">
+      <c r="G40" s="112">
         <v>39490</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="114">
+      <c r="C41" s="108">
         <v>23</v>
       </c>
-      <c r="D41" s="117">
+      <c r="D41" s="111">
         <v>47347</v>
       </c>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="107" t="s">
         <v>169</v>
       </c>
-      <c r="F41" s="131">
+      <c r="F41" s="122">
         <v>38</v>
       </c>
-      <c r="G41" s="118">
+      <c r="G41" s="112">
         <v>35552</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="114">
+      <c r="C42" s="108">
         <v>12</v>
       </c>
-      <c r="D42" s="117">
+      <c r="D42" s="111">
         <v>40823</v>
       </c>
-      <c r="E42" s="113" t="s">
+      <c r="E42" s="107" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="131">
+      <c r="F42" s="122">
         <v>32</v>
       </c>
-      <c r="G42" s="118">
+      <c r="G42" s="112">
         <v>32730</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="114">
+      <c r="C43" s="108">
         <v>8</v>
       </c>
-      <c r="D43" s="117">
+      <c r="D43" s="111">
         <v>40246</v>
       </c>
-      <c r="E43" s="113" t="s">
+      <c r="E43" s="107" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="131">
+      <c r="F43" s="122">
         <v>17</v>
       </c>
-      <c r="G43" s="118">
+      <c r="G43" s="112">
         <v>38458</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="122" t="s">
+      <c r="B44" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="123">
+      <c r="C44" s="117">
         <v>6</v>
       </c>
-      <c r="D44" s="121">
+      <c r="D44" s="115">
         <v>42004</v>
       </c>
-      <c r="E44" s="122" t="s">
+      <c r="E44" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="132">
+      <c r="F44" s="123">
         <v>14</v>
       </c>
-      <c r="G44" s="124">
+      <c r="G44" s="118">
         <v>40664</v>
       </c>
     </row>
@@ -9347,58 +10871,58 @@
       <c r="G45" s="79"/>
     </row>
     <row r="46" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="110" t="s">
+      <c r="B46" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="114">
+      <c r="C46" s="108">
         <v>212</v>
       </c>
-      <c r="D46" s="115">
+      <c r="D46" s="109">
         <v>46315</v>
       </c>
-      <c r="E46" s="110" t="s">
+      <c r="E46" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="F46" s="131">
+      <c r="F46" s="122">
         <v>533</v>
       </c>
-      <c r="G46" s="116">
+      <c r="G46" s="110">
         <v>39574</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="189" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="127"/>
-      <c r="D48" s="133">
+      <c r="C48" s="189"/>
+      <c r="D48" s="124">
         <v>9818763</v>
       </c>
-      <c r="E48" s="127" t="s">
+      <c r="E48" s="189" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="127"/>
-      <c r="G48" s="128">
+      <c r="F48" s="189"/>
+      <c r="G48" s="120">
         <v>21092711</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:F48"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:F48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -9407,7 +10931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2B4AA6-8AB0-4C8C-92C4-05FC8231662D}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -9441,16 +10965,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="81.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="125" t="s">
         <v>121</v>
       </c>
       <c r="C6" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="126" t="s">
         <v>181</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="127" t="s">
         <v>121</v>
       </c>
       <c r="F6" s="62" t="s">
@@ -9461,326 +10985,326 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="128" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="138">
+      <c r="C7" s="129">
         <v>5</v>
       </c>
-      <c r="D7" s="139">
+      <c r="D7" s="130">
         <v>22279</v>
       </c>
-      <c r="E7" s="140" t="s">
+      <c r="E7" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="138">
+      <c r="F7" s="129">
         <v>6</v>
       </c>
-      <c r="G7" s="139">
+      <c r="G7" s="130">
         <v>22348</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="142">
+      <c r="C8" s="133">
         <v>4</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="134">
         <v>7527</v>
       </c>
-      <c r="E8" s="144" t="s">
+      <c r="E8" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="142">
+      <c r="F8" s="133">
         <v>8</v>
       </c>
-      <c r="G8" s="143">
+      <c r="G8" s="134">
         <v>23749</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="141" t="s">
+      <c r="B9" s="132" t="s">
         <v>186</v>
       </c>
-      <c r="C9" s="142">
+      <c r="C9" s="133">
         <v>11</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="134">
         <v>19875</v>
       </c>
-      <c r="E9" s="144" t="s">
+      <c r="E9" s="135" t="s">
         <v>186</v>
       </c>
-      <c r="F9" s="142">
+      <c r="F9" s="133">
         <v>12</v>
       </c>
-      <c r="G9" s="143">
+      <c r="G9" s="134">
         <v>18579</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="141" t="s">
+      <c r="B10" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="C10" s="142">
+      <c r="C10" s="133">
         <v>10</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="134">
         <v>23717</v>
       </c>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="135" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="142">
+      <c r="F10" s="133">
         <v>18</v>
       </c>
-      <c r="G10" s="143">
+      <c r="G10" s="134">
         <v>18950</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="141" t="s">
+      <c r="B11" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="133">
         <v>17</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="134">
         <v>14713</v>
       </c>
-      <c r="E11" s="144" t="s">
+      <c r="E11" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="F11" s="142">
+      <c r="F11" s="133">
         <v>18</v>
       </c>
-      <c r="G11" s="143">
+      <c r="G11" s="134">
         <v>17778</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="132" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="142">
+      <c r="C12" s="133">
         <v>26</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="134">
         <v>11121</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="F12" s="142">
+      <c r="F12" s="133">
         <v>55</v>
       </c>
-      <c r="G12" s="143">
+      <c r="G12" s="134">
         <v>17735</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="142">
+      <c r="C13" s="133">
         <v>34</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="134">
         <v>19499</v>
       </c>
-      <c r="E13" s="144" t="s">
+      <c r="E13" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="142">
+      <c r="F13" s="133">
         <v>86</v>
       </c>
-      <c r="G13" s="143">
+      <c r="G13" s="134">
         <v>23305</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="141" t="s">
+      <c r="B14" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="142">
+      <c r="C14" s="133">
         <v>58</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="134">
         <v>23496</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="142">
+      <c r="F14" s="133">
         <v>124</v>
       </c>
-      <c r="G14" s="143">
+      <c r="G14" s="134">
         <v>32978</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="142">
+      <c r="C15" s="133">
         <v>129</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="134">
         <v>31148</v>
       </c>
-      <c r="E15" s="144" t="s">
+      <c r="E15" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="142">
+      <c r="F15" s="133">
         <v>311</v>
       </c>
-      <c r="G15" s="143">
+      <c r="G15" s="134">
         <v>40331</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="142">
+      <c r="C16" s="133">
         <v>188</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="134">
         <v>35706</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="142">
+      <c r="F16" s="133">
         <v>461</v>
       </c>
-      <c r="G16" s="143">
+      <c r="G16" s="134">
         <v>40254</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="C17" s="142">
+      <c r="C17" s="133">
         <v>165</v>
       </c>
-      <c r="D17" s="143">
+      <c r="D17" s="134">
         <v>28365</v>
       </c>
-      <c r="E17" s="144" t="s">
+      <c r="E17" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="142">
+      <c r="F17" s="133">
         <v>455</v>
       </c>
-      <c r="G17" s="143">
+      <c r="G17" s="134">
         <v>38767</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="142">
+      <c r="C18" s="133">
         <v>170</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="134">
         <v>26154</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="142">
+      <c r="F18" s="133">
         <v>518</v>
       </c>
-      <c r="G18" s="143">
+      <c r="G18" s="134">
         <v>36137</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="141" t="s">
+      <c r="B19" s="132" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="142">
+      <c r="C19" s="133">
         <v>195</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="134">
         <v>25090</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="135" t="s">
         <v>196</v>
       </c>
-      <c r="F19" s="142">
+      <c r="F19" s="133">
         <v>517</v>
       </c>
-      <c r="G19" s="143">
+      <c r="G19" s="134">
         <v>33809</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="C20" s="146">
+      <c r="C20" s="137">
         <v>255</v>
       </c>
-      <c r="D20" s="147">
+      <c r="D20" s="138">
         <v>25332</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="146">
+      <c r="F20" s="137">
         <v>605</v>
       </c>
-      <c r="G20" s="147">
+      <c r="G20" s="138">
         <v>29337</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="149" t="s">
+      <c r="B21" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="150">
+      <c r="C21" s="141">
         <v>1267</v>
       </c>
-      <c r="D21" s="151">
+      <c r="D21" s="142">
         <v>27128</v>
       </c>
-      <c r="E21" s="149" t="s">
+      <c r="E21" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="150">
+      <c r="F21" s="141">
         <v>3194</v>
       </c>
-      <c r="G21" s="151">
+      <c r="G21" s="142">
         <v>34741</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="152"/>
-      <c r="D23" s="151">
+      <c r="C23" s="191"/>
+      <c r="D23" s="142">
         <v>34371598</v>
       </c>
-      <c r="E23" s="152" t="s">
+      <c r="E23" s="191" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="152"/>
-      <c r="G23" s="151">
+      <c r="F23" s="191"/>
+      <c r="G23" s="142">
         <v>110963139</v>
       </c>
     </row>
@@ -9796,12 +11320,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFFCE8A-E38F-41FA-B037-DF44A784164E}">
   <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9825,542 +11349,540 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="192" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="154"/>
-      <c r="E6" s="155" t="s">
+      <c r="D6" s="192"/>
+      <c r="E6" s="193" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="155"/>
-      <c r="G6" s="154" t="s">
+      <c r="F6" s="193"/>
+      <c r="G6" s="192" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="154"/>
-      <c r="I6" s="155" t="s">
+      <c r="H6" s="192"/>
+      <c r="I6" s="193" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="155"/>
-      <c r="K6" s="156" t="s">
+      <c r="J6" s="193"/>
+      <c r="K6" s="194" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="156"/>
+      <c r="L6" s="194"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="157">
+      <c r="C7" s="144">
         <v>14</v>
       </c>
-      <c r="D7" s="158">
+      <c r="D7" s="145">
         <v>89310</v>
       </c>
-      <c r="E7" s="157">
+      <c r="E7" s="144">
         <v>9</v>
       </c>
-      <c r="F7" s="159">
+      <c r="F7" s="146">
         <v>18053</v>
       </c>
-      <c r="G7" s="157">
+      <c r="G7" s="144">
         <v>18</v>
       </c>
-      <c r="H7" s="159">
+      <c r="H7" s="146">
         <v>26618</v>
       </c>
-      <c r="I7" s="157">
+      <c r="I7" s="144">
         <v>163</v>
       </c>
-      <c r="J7" s="159">
+      <c r="J7" s="146">
         <v>1981604</v>
       </c>
-      <c r="K7" s="157">
+      <c r="K7" s="144">
         <v>2</v>
       </c>
-      <c r="L7" s="158">
+      <c r="L7" s="145">
         <v>34088</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="160">
+      <c r="B8" s="147">
         <v>30</v>
       </c>
-      <c r="C8" s="161">
+      <c r="C8" s="148">
         <v>52</v>
       </c>
-      <c r="D8" s="162">
+      <c r="D8" s="149">
         <v>640715</v>
       </c>
-      <c r="E8" s="161">
+      <c r="E8" s="148">
         <v>17</v>
       </c>
-      <c r="F8" s="163">
+      <c r="F8" s="150">
         <v>60861</v>
       </c>
-      <c r="G8" s="161">
+      <c r="G8" s="148">
         <v>12</v>
       </c>
-      <c r="H8" s="163">
+      <c r="H8" s="150">
         <v>30983</v>
       </c>
-      <c r="I8" s="161">
+      <c r="I8" s="148">
         <v>305</v>
       </c>
-      <c r="J8" s="163">
+      <c r="J8" s="150">
         <v>6645973</v>
       </c>
-      <c r="K8" s="161">
+      <c r="K8" s="148">
         <v>1</v>
       </c>
-      <c r="L8" s="162">
+      <c r="L8" s="149">
         <v>46176</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="160">
+      <c r="B9" s="147">
         <v>35</v>
       </c>
-      <c r="C9" s="161">
+      <c r="C9" s="148">
         <v>173</v>
       </c>
-      <c r="D9" s="162">
+      <c r="D9" s="149">
         <v>2454135</v>
       </c>
-      <c r="E9" s="161">
+      <c r="E9" s="148">
         <v>49</v>
       </c>
-      <c r="F9" s="163">
+      <c r="F9" s="150">
         <v>192564</v>
       </c>
-      <c r="G9" s="161">
+      <c r="G9" s="148">
         <v>13</v>
       </c>
-      <c r="H9" s="163">
+      <c r="H9" s="150">
         <v>63498</v>
       </c>
-      <c r="I9" s="161">
+      <c r="I9" s="148">
         <v>240</v>
       </c>
-      <c r="J9" s="163">
+      <c r="J9" s="150">
         <v>6667468</v>
       </c>
-      <c r="K9" s="161">
+      <c r="K9" s="148">
         <v>2</v>
       </c>
-      <c r="L9" s="162">
+      <c r="L9" s="149">
         <v>110699</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="160">
+      <c r="B10" s="147">
         <v>40</v>
       </c>
-      <c r="C10" s="161">
+      <c r="C10" s="148">
         <v>215</v>
       </c>
-      <c r="D10" s="162">
+      <c r="D10" s="149">
         <v>3185610</v>
       </c>
-      <c r="E10" s="161">
+      <c r="E10" s="148">
         <v>52</v>
       </c>
-      <c r="F10" s="163">
+      <c r="F10" s="150">
         <v>174598</v>
       </c>
-      <c r="G10" s="161">
+      <c r="G10" s="148">
         <v>23</v>
       </c>
-      <c r="H10" s="163">
+      <c r="H10" s="150">
         <v>137796</v>
       </c>
-      <c r="I10" s="161">
+      <c r="I10" s="148">
         <v>180</v>
       </c>
-      <c r="J10" s="163">
+      <c r="J10" s="150">
         <v>5840024</v>
       </c>
-      <c r="K10" s="161">
+      <c r="K10" s="148">
         <v>6</v>
       </c>
-      <c r="L10" s="162">
+      <c r="L10" s="149">
         <v>470338</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="160">
+      <c r="B11" s="147">
         <v>45</v>
       </c>
-      <c r="C11" s="161">
+      <c r="C11" s="148">
         <v>280</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="149">
         <v>4629375</v>
       </c>
-      <c r="E11" s="161">
+      <c r="E11" s="148">
         <v>79</v>
       </c>
-      <c r="F11" s="163">
+      <c r="F11" s="150">
         <v>347133</v>
       </c>
-      <c r="G11" s="161">
+      <c r="G11" s="148">
         <v>56</v>
       </c>
-      <c r="H11" s="163">
+      <c r="H11" s="150">
         <v>368652</v>
       </c>
-      <c r="I11" s="161">
+      <c r="I11" s="148">
         <v>130</v>
       </c>
-      <c r="J11" s="163">
+      <c r="J11" s="150">
         <v>3755081</v>
       </c>
-      <c r="K11" s="161">
+      <c r="K11" s="148">
         <v>18</v>
       </c>
-      <c r="L11" s="162">
+      <c r="L11" s="149">
         <v>1432544</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="160">
+      <c r="B12" s="147">
         <v>50</v>
       </c>
-      <c r="C12" s="161">
+      <c r="C12" s="148">
         <v>364</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="149">
         <v>6872028</v>
       </c>
-      <c r="E12" s="161">
+      <c r="E12" s="148">
         <v>103</v>
       </c>
-      <c r="F12" s="163">
+      <c r="F12" s="150">
         <v>563030</v>
       </c>
-      <c r="G12" s="161">
+      <c r="G12" s="148">
         <v>73</v>
       </c>
-      <c r="H12" s="163">
+      <c r="H12" s="150">
         <v>426820</v>
       </c>
-      <c r="I12" s="161">
+      <c r="I12" s="148">
         <v>108</v>
       </c>
-      <c r="J12" s="163">
+      <c r="J12" s="150">
         <v>4368827</v>
       </c>
-      <c r="K12" s="161">
+      <c r="K12" s="148">
         <v>41</v>
       </c>
-      <c r="L12" s="162">
+      <c r="L12" s="149">
         <v>3177281</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="160">
+      <c r="B13" s="147">
         <v>55</v>
       </c>
-      <c r="C13" s="162">
+      <c r="C13" s="149">
         <v>1992</v>
       </c>
-      <c r="D13" s="162">
+      <c r="D13" s="149">
         <v>34807190</v>
       </c>
-      <c r="E13" s="161">
+      <c r="E13" s="148">
         <v>138</v>
       </c>
-      <c r="F13" s="163">
+      <c r="F13" s="150">
         <v>725372</v>
       </c>
-      <c r="G13" s="161">
+      <c r="G13" s="148">
         <v>85</v>
       </c>
-      <c r="H13" s="163">
+      <c r="H13" s="150">
         <v>538477</v>
       </c>
-      <c r="I13" s="161">
+      <c r="I13" s="148">
         <v>110</v>
       </c>
-      <c r="J13" s="163">
+      <c r="J13" s="150">
         <v>7218517</v>
       </c>
-      <c r="K13" s="161">
+      <c r="K13" s="148">
         <v>55</v>
       </c>
-      <c r="L13" s="162">
+      <c r="L13" s="149">
         <v>4386204</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="160">
+      <c r="B14" s="147">
         <v>60</v>
       </c>
-      <c r="C14" s="162">
+      <c r="C14" s="149">
         <v>4614</v>
       </c>
-      <c r="D14" s="162">
+      <c r="D14" s="149">
         <v>63436855</v>
       </c>
-      <c r="E14" s="161">
+      <c r="E14" s="148">
         <v>96</v>
       </c>
-      <c r="F14" s="163">
+      <c r="F14" s="150">
         <v>448904</v>
       </c>
-      <c r="G14" s="161">
+      <c r="G14" s="148">
         <v>78</v>
       </c>
-      <c r="H14" s="163">
+      <c r="H14" s="150">
         <v>654898</v>
       </c>
-      <c r="I14" s="161">
+      <c r="I14" s="148">
         <v>182</v>
       </c>
-      <c r="J14" s="163">
+      <c r="J14" s="150">
         <v>7679391</v>
       </c>
-      <c r="K14" s="161">
+      <c r="K14" s="148">
         <v>105</v>
       </c>
-      <c r="L14" s="162">
+      <c r="L14" s="149">
         <v>8995977</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="160">
+      <c r="B15" s="147">
         <v>65</v>
       </c>
-      <c r="C15" s="162">
+      <c r="C15" s="149">
         <v>4391</v>
       </c>
-      <c r="D15" s="162">
+      <c r="D15" s="149">
         <v>65429539</v>
       </c>
-      <c r="E15" s="161">
+      <c r="E15" s="148">
         <v>41</v>
       </c>
-      <c r="F15" s="163">
+      <c r="F15" s="150">
         <v>161792</v>
       </c>
-      <c r="G15" s="161">
+      <c r="G15" s="148">
         <v>78</v>
       </c>
-      <c r="H15" s="163">
+      <c r="H15" s="150">
         <v>1371472</v>
       </c>
-      <c r="I15" s="161">
+      <c r="I15" s="148">
         <v>132</v>
       </c>
-      <c r="J15" s="163">
+      <c r="J15" s="150">
         <v>11559049</v>
       </c>
-      <c r="K15" s="161">
+      <c r="K15" s="148">
         <v>188</v>
       </c>
-      <c r="L15" s="162">
+      <c r="L15" s="149">
         <v>36632221</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="160">
+      <c r="B16" s="147">
         <v>70</v>
       </c>
-      <c r="C16" s="162">
+      <c r="C16" s="149">
         <v>3052</v>
       </c>
-      <c r="D16" s="162">
+      <c r="D16" s="149">
         <v>49300639</v>
       </c>
-      <c r="E16" s="161">
+      <c r="E16" s="148">
         <v>8</v>
       </c>
-      <c r="F16" s="163">
+      <c r="F16" s="150">
         <v>26006</v>
       </c>
-      <c r="G16" s="162">
+      <c r="G16" s="149">
         <v>10534</v>
       </c>
-      <c r="H16" s="163">
+      <c r="H16" s="150">
         <v>171987081</v>
       </c>
-      <c r="I16" s="161">
+      <c r="I16" s="148">
         <v>126</v>
       </c>
-      <c r="J16" s="163">
+      <c r="J16" s="150">
         <v>12072490</v>
       </c>
-      <c r="K16" s="161">
+      <c r="K16" s="148">
         <v>251</v>
       </c>
-      <c r="L16" s="162">
+      <c r="L16" s="149">
         <v>44057386</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="160">
+      <c r="B17" s="147">
         <v>75</v>
       </c>
-      <c r="C17" s="162">
+      <c r="C17" s="149">
         <v>1074</v>
       </c>
-      <c r="D17" s="162">
+      <c r="D17" s="149">
         <v>16551820</v>
       </c>
-      <c r="E17" s="164" t="s">
+      <c r="E17" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="F17" s="165" t="s">
+      <c r="F17" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="G17" s="162">
+      <c r="G17" s="149">
         <v>6604</v>
       </c>
-      <c r="H17" s="163">
+      <c r="H17" s="150">
         <v>127175033</v>
       </c>
-      <c r="I17" s="161">
+      <c r="I17" s="148">
         <v>39</v>
       </c>
-      <c r="J17" s="163">
+      <c r="J17" s="150">
         <v>2130721</v>
       </c>
-      <c r="K17" s="161">
+      <c r="K17" s="148">
         <v>298</v>
       </c>
-      <c r="L17" s="162">
+      <c r="L17" s="149">
         <v>45635763</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="160">
+      <c r="B18" s="147">
         <v>80</v>
       </c>
-      <c r="C18" s="161">
+      <c r="C18" s="148">
         <v>427</v>
       </c>
-      <c r="D18" s="162">
+      <c r="D18" s="149">
         <v>7183669</v>
       </c>
-      <c r="E18" s="161">
+      <c r="E18" s="148">
         <v>1</v>
       </c>
-      <c r="F18" s="163">
+      <c r="F18" s="150">
         <v>1590</v>
       </c>
-      <c r="G18" s="162">
+      <c r="G18" s="149">
         <v>3694</v>
       </c>
-      <c r="H18" s="163">
+      <c r="H18" s="150">
         <v>81377134</v>
       </c>
-      <c r="I18" s="161">
+      <c r="I18" s="148">
         <v>19</v>
       </c>
-      <c r="J18" s="163">
+      <c r="J18" s="150">
         <v>2491736</v>
       </c>
-      <c r="K18" s="161">
+      <c r="K18" s="148">
         <v>344</v>
       </c>
-      <c r="L18" s="162">
+      <c r="L18" s="149">
         <v>46290351</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="160">
+      <c r="B19" s="147">
         <v>85</v>
       </c>
-      <c r="C19" s="161">
+      <c r="C19" s="148">
         <v>152</v>
       </c>
-      <c r="D19" s="162">
+      <c r="D19" s="149">
         <v>3193954</v>
       </c>
-      <c r="E19" s="164" t="s">
+      <c r="E19" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="F19" s="165" t="s">
+      <c r="F19" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="G19" s="162">
+      <c r="G19" s="149">
         <v>1777</v>
       </c>
-      <c r="H19" s="163">
+      <c r="H19" s="150">
         <v>43167819</v>
       </c>
-      <c r="I19" s="161">
+      <c r="I19" s="148">
         <v>16</v>
       </c>
-      <c r="J19" s="163">
+      <c r="J19" s="150">
         <v>3843518</v>
       </c>
-      <c r="K19" s="161">
+      <c r="K19" s="148">
         <v>225</v>
       </c>
-      <c r="L19" s="162">
+      <c r="L19" s="149">
         <v>27299811</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="160">
+      <c r="B20" s="147">
         <v>90</v>
       </c>
-      <c r="C20" s="161">
+      <c r="C20" s="148">
         <v>27</v>
       </c>
-      <c r="D20" s="162">
+      <c r="D20" s="149">
         <v>717593</v>
       </c>
-      <c r="E20" s="164" t="s">
+      <c r="E20" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="F20" s="165" t="s">
+      <c r="F20" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="161">
+      <c r="G20" s="148">
         <v>422</v>
       </c>
-      <c r="H20" s="163">
+      <c r="H20" s="150">
         <v>9232912</v>
       </c>
-      <c r="I20" s="161">
+      <c r="I20" s="148">
         <v>3</v>
       </c>
-      <c r="J20" s="163">
+      <c r="J20" s="150">
         <v>192549</v>
       </c>
-      <c r="K20" s="161">
+      <c r="K20" s="148">
         <v>102</v>
       </c>
-      <c r="L20" s="162">
-        <v>6873286</v>
-      </c>
+      <c r="L20" s="149"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="166" t="s">
+      <c r="B23" s="153" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="154" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="154" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="154" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="154" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10376,12 +11898,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E2C2E0-99BD-4711-8BB5-3FD27498F468}">
   <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10397,470 +11919,470 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="195" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="196" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="87"/>
+      <c r="E5" s="197" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="91" t="s">
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="198" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="89"/>
-      <c r="N5" s="89"/>
+      <c r="K5" s="198"/>
+      <c r="L5" s="198"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="92" t="s">
+      <c r="B6" s="195"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="93" t="s">
+      <c r="F6" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="92" t="s">
+      <c r="I6" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="94" t="s">
+      <c r="K6" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="94" t="s">
+      <c r="L6" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="95" t="s">
+      <c r="M6" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="N6" s="95"/>
+      <c r="N6" s="199"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="96">
+      <c r="B7" s="91">
         <v>2008</v>
       </c>
-      <c r="C7" s="97">
+      <c r="C7" s="92">
         <v>44.3</v>
       </c>
-      <c r="D7" s="98">
+      <c r="D7" s="93">
         <v>2.4E-2</v>
       </c>
-      <c r="E7" s="98">
+      <c r="E7" s="93">
         <v>1.2E-2</v>
       </c>
-      <c r="F7" s="98">
+      <c r="F7" s="93">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G7" s="98">
+      <c r="G7" s="93">
         <v>0.93</v>
       </c>
-      <c r="H7" s="98">
-        <v>0</v>
-      </c>
-      <c r="I7" s="98">
+      <c r="H7" s="93">
+        <v>0</v>
+      </c>
+      <c r="I7" s="93">
         <v>0.73399999999999999</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="93">
         <v>0.13200000000000001</v>
       </c>
-      <c r="K7" s="98">
+      <c r="K7" s="93">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L7" s="98">
+      <c r="L7" s="93">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="M7" s="98">
+      <c r="M7" s="93">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N7" s="98">
+      <c r="N7" s="93">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="99">
+      <c r="B8" s="94">
         <v>2009</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="95">
         <v>44.8</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="96">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="96">
         <v>0.01</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="96">
         <v>0.03</v>
       </c>
-      <c r="G8" s="101">
+      <c r="G8" s="96">
         <v>0.93899999999999995</v>
       </c>
-      <c r="H8" s="101">
-        <v>0</v>
-      </c>
-      <c r="I8" s="101">
+      <c r="H8" s="96">
+        <v>0</v>
+      </c>
+      <c r="I8" s="96">
         <v>0.68899999999999995</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="96">
         <v>0.14599999999999999</v>
       </c>
-      <c r="K8" s="101">
+      <c r="K8" s="96">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="96">
         <v>1.6E-2</v>
       </c>
-      <c r="M8" s="101">
+      <c r="M8" s="96">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N8" s="101">
+      <c r="N8" s="96">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="99">
+      <c r="B9" s="94">
         <v>2010</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="95">
         <v>45.2</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="96">
         <v>1.6E-2</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="96">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="96">
         <v>2.7E-2</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="96">
         <v>0.94899999999999995</v>
       </c>
-      <c r="H9" s="101">
-        <v>0</v>
-      </c>
-      <c r="I9" s="101">
+      <c r="H9" s="96">
+        <v>0</v>
+      </c>
+      <c r="I9" s="96">
         <v>0.67900000000000005</v>
       </c>
-      <c r="J9" s="101">
+      <c r="J9" s="96">
         <v>0.152</v>
       </c>
-      <c r="K9" s="101">
+      <c r="K9" s="96">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="96">
         <v>1.9E-2</v>
       </c>
-      <c r="M9" s="101">
+      <c r="M9" s="96">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N9" s="101">
+      <c r="N9" s="96">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="99">
+      <c r="B10" s="94">
         <v>2011</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="95">
         <v>45.5</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="96">
         <v>1.2E-2</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="96">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="96">
         <v>2.3E-2</v>
       </c>
-      <c r="G10" s="101">
+      <c r="G10" s="96">
         <v>0.95899999999999996</v>
       </c>
-      <c r="H10" s="101">
-        <v>0</v>
-      </c>
-      <c r="I10" s="101">
+      <c r="H10" s="96">
+        <v>0</v>
+      </c>
+      <c r="I10" s="96">
         <v>0.67200000000000004</v>
       </c>
-      <c r="J10" s="101">
+      <c r="J10" s="96">
         <v>0.156</v>
       </c>
-      <c r="K10" s="101">
+      <c r="K10" s="96">
         <v>5.5E-2</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="96">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="96">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="N10" s="101">
+      <c r="N10" s="96">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="99">
+      <c r="B11" s="94">
         <v>2012</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="95">
         <v>45.4</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="96">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="96">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="96">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="96">
         <v>0.96599999999999997</v>
       </c>
-      <c r="H11" s="101">
+      <c r="H11" s="96">
         <v>2E-3</v>
       </c>
-      <c r="I11" s="101">
+      <c r="I11" s="96">
         <v>0.65100000000000002</v>
       </c>
-      <c r="J11" s="101">
+      <c r="J11" s="96">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="101">
+      <c r="K11" s="96">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="96">
         <v>2.4E-2</v>
       </c>
-      <c r="M11" s="101">
+      <c r="M11" s="96">
         <v>2.4E-2</v>
       </c>
-      <c r="N11" s="101">
+      <c r="N11" s="96">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="99">
+      <c r="B12" s="94">
         <v>2013</v>
       </c>
-      <c r="C12" s="100">
+      <c r="C12" s="95">
         <v>45.3</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="96">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="96">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="96">
         <v>1.4E-2</v>
       </c>
-      <c r="G12" s="101">
+      <c r="G12" s="96">
         <v>0.91400000000000003</v>
       </c>
-      <c r="H12" s="101">
+      <c r="H12" s="96">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="I12" s="101">
+      <c r="I12" s="96">
         <v>0.64900000000000002</v>
       </c>
-      <c r="J12" s="101">
+      <c r="J12" s="96">
         <v>0.16900000000000001</v>
       </c>
-      <c r="K12" s="101">
+      <c r="K12" s="96">
         <v>5.5E-2</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="96">
         <v>2.7E-2</v>
       </c>
-      <c r="M12" s="101">
+      <c r="M12" s="96">
         <v>2.4E-2</v>
       </c>
-      <c r="N12" s="101">
+      <c r="N12" s="96">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="99">
+      <c r="B13" s="94">
         <v>2014</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="95">
         <v>44.8</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="96">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="96">
         <v>2E-3</v>
       </c>
-      <c r="F13" s="101">
+      <c r="F13" s="96">
         <v>0.01</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="96">
         <v>0.86299999999999999</v>
       </c>
-      <c r="H13" s="101">
+      <c r="H13" s="96">
         <v>0.121</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="96">
         <v>0.64700000000000002</v>
       </c>
-      <c r="J13" s="101">
+      <c r="J13" s="96">
         <v>0.16600000000000001</v>
       </c>
-      <c r="K13" s="101">
+      <c r="K13" s="96">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="96">
         <v>0.03</v>
       </c>
-      <c r="M13" s="101">
+      <c r="M13" s="96">
         <v>2.4E-2</v>
       </c>
-      <c r="N13" s="101">
+      <c r="N13" s="96">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="99">
+      <c r="B14" s="94">
         <v>2015</v>
       </c>
-      <c r="C14" s="100">
+      <c r="C14" s="95">
         <v>44.8</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="96">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="96">
         <v>2E-3</v>
       </c>
-      <c r="F14" s="101">
+      <c r="F14" s="96">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="101">
+      <c r="G14" s="96">
         <v>0.81299999999999994</v>
       </c>
-      <c r="H14" s="101">
+      <c r="H14" s="96">
         <v>0.17399999999999999</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="96">
         <v>0.64500000000000002</v>
       </c>
-      <c r="J14" s="101">
+      <c r="J14" s="96">
         <v>0.16800000000000001</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="96">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="96">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="M14" s="101">
+      <c r="M14" s="96">
         <v>2.3E-2</v>
       </c>
-      <c r="N14" s="101">
+      <c r="N14" s="96">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="99">
+      <c r="B15" s="94">
         <v>2016</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="95">
         <v>44.7</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="96">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="96">
         <v>2E-3</v>
       </c>
-      <c r="F15" s="101">
+      <c r="F15" s="96">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G15" s="101">
+      <c r="G15" s="96">
         <v>0.81</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="96">
         <v>0.17899999999999999</v>
       </c>
-      <c r="I15" s="101">
+      <c r="I15" s="96">
         <v>0.63600000000000001</v>
       </c>
-      <c r="J15" s="101">
+      <c r="J15" s="96">
         <v>0.17299999999999999</v>
       </c>
-      <c r="K15" s="101">
+      <c r="K15" s="96">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="L15" s="101">
+      <c r="L15" s="96">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="M15" s="101">
+      <c r="M15" s="96">
         <v>2.3E-2</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="96">
         <v>7.8E-2</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="99">
+      <c r="B16" s="94">
         <v>2017</v>
       </c>
-      <c r="C16" s="100">
+      <c r="C16" s="95">
         <v>44.6</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="96">
         <v>2E-3</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="96">
         <v>1E-3</v>
       </c>
-      <c r="F16" s="101">
+      <c r="F16" s="96">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="101">
+      <c r="G16" s="96">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H16" s="101">
+      <c r="H16" s="96">
         <v>0.27600000000000002</v>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="96">
         <v>0.629</v>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="96">
         <v>0.17699999999999999</v>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="96">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="L16" s="101">
+      <c r="L16" s="96">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="M16" s="101">
+      <c r="M16" s="96">
         <v>2.3E-2</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="96">
         <v>7.8E-2</v>
       </c>
     </row>
@@ -10877,11 +12399,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF8EEF1-1866-4910-AE47-59453CB830C5}">
+  <dimension ref="C3:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="200" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="201"/>
+      <c r="F6" s="202" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="187" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="187"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="204">
+        <v>486</v>
+      </c>
+      <c r="E7" s="205">
+        <v>49321</v>
+      </c>
+      <c r="F7" s="206" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="207">
+        <v>1790</v>
+      </c>
+      <c r="H7" s="208">
+        <v>50023</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="210">
+        <v>2769</v>
+      </c>
+      <c r="E8" s="211">
+        <v>60106</v>
+      </c>
+      <c r="F8" s="212" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="213">
+        <v>10599</v>
+      </c>
+      <c r="H8" s="72">
+        <v>61542</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="209" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="210">
+        <v>3876</v>
+      </c>
+      <c r="E9" s="211">
+        <v>73936</v>
+      </c>
+      <c r="F9" s="212" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="213">
+        <v>13101</v>
+      </c>
+      <c r="H9" s="72">
+        <v>73576</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="209" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="210">
+        <v>4007</v>
+      </c>
+      <c r="E10" s="211">
+        <v>83966</v>
+      </c>
+      <c r="F10" s="212" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="213">
+        <v>12813</v>
+      </c>
+      <c r="H10" s="72">
+        <v>79934</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="209" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="210">
+        <v>3639</v>
+      </c>
+      <c r="E11" s="211">
+        <v>89560</v>
+      </c>
+      <c r="F11" s="212" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="213">
+        <v>11781</v>
+      </c>
+      <c r="H11" s="72">
+        <v>81731</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="209" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="210">
+        <v>3417</v>
+      </c>
+      <c r="E12" s="211">
+        <v>91446</v>
+      </c>
+      <c r="F12" s="212" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="213">
+        <v>11430</v>
+      </c>
+      <c r="H12" s="72">
+        <v>81093</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="210">
+        <v>3021</v>
+      </c>
+      <c r="E13" s="211">
+        <v>93611</v>
+      </c>
+      <c r="F13" s="212" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="213">
+        <v>10784</v>
+      </c>
+      <c r="H13" s="72">
+        <v>80739</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="209" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="210">
+        <v>2505</v>
+      </c>
+      <c r="E14" s="211">
+        <v>92257</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="213">
+        <v>9390</v>
+      </c>
+      <c r="H14" s="72">
+        <v>79442</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="210">
+        <v>1753</v>
+      </c>
+      <c r="E15" s="211">
+        <v>90102</v>
+      </c>
+      <c r="F15" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="213">
+        <v>6616</v>
+      </c>
+      <c r="H15" s="72">
+        <v>79296</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="209" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="214">
+        <v>841</v>
+      </c>
+      <c r="E16" s="211">
+        <v>82010</v>
+      </c>
+      <c r="F16" s="212" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="213">
+        <v>2528</v>
+      </c>
+      <c r="H16" s="72">
+        <v>76781</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="216">
+        <v>335</v>
+      </c>
+      <c r="E17" s="217">
+        <v>81596</v>
+      </c>
+      <c r="F17" s="218" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="219">
+        <v>720</v>
+      </c>
+      <c r="H17" s="78">
+        <v>68388</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="220" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="221">
+        <v>26649</v>
+      </c>
+      <c r="E18" s="222">
+        <v>83304</v>
+      </c>
+      <c r="F18" s="223" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="224">
+        <v>91552</v>
+      </c>
+      <c r="H18" s="225">
+        <v>76506</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="226" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="226"/>
+      <c r="E19" s="227" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="208">
+        <v>7004302989</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11940,7 +13767,312 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3BB5A5-D0BC-4F7A-83ED-BDD5638E978B}">
+  <dimension ref="C3:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="C3" s="56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="200" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="201" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="201"/>
+      <c r="F6" s="202" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="187" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="187"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="203" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="204">
+        <v>486</v>
+      </c>
+      <c r="E7" s="205">
+        <v>49321</v>
+      </c>
+      <c r="F7" s="206" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="207">
+        <v>1790</v>
+      </c>
+      <c r="H7" s="208">
+        <v>50023</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="209" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="210">
+        <v>2769</v>
+      </c>
+      <c r="E8" s="211">
+        <v>60106</v>
+      </c>
+      <c r="F8" s="212" t="s">
+        <v>237</v>
+      </c>
+      <c r="G8" s="213">
+        <v>10599</v>
+      </c>
+      <c r="H8" s="72">
+        <v>61542</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="209" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="210">
+        <v>3876</v>
+      </c>
+      <c r="E9" s="211">
+        <v>73936</v>
+      </c>
+      <c r="F9" s="212" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="213">
+        <v>13101</v>
+      </c>
+      <c r="H9" s="72">
+        <v>73576</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="209" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="210">
+        <v>4007</v>
+      </c>
+      <c r="E10" s="211">
+        <v>83966</v>
+      </c>
+      <c r="F10" s="212" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="213">
+        <v>12813</v>
+      </c>
+      <c r="H10" s="72">
+        <v>79934</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="209" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="210">
+        <v>3639</v>
+      </c>
+      <c r="E11" s="211">
+        <v>89560</v>
+      </c>
+      <c r="F11" s="212" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="213">
+        <v>11781</v>
+      </c>
+      <c r="H11" s="72">
+        <v>81731</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="209" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="210">
+        <v>3417</v>
+      </c>
+      <c r="E12" s="211">
+        <v>91446</v>
+      </c>
+      <c r="F12" s="212" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="213">
+        <v>11430</v>
+      </c>
+      <c r="H12" s="72">
+        <v>81093</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="209" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="210">
+        <v>3021</v>
+      </c>
+      <c r="E13" s="211">
+        <v>93611</v>
+      </c>
+      <c r="F13" s="212" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="213">
+        <v>10784</v>
+      </c>
+      <c r="H13" s="72">
+        <v>80739</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="209" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="210">
+        <v>2505</v>
+      </c>
+      <c r="E14" s="211">
+        <v>92257</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="213">
+        <v>9390</v>
+      </c>
+      <c r="H14" s="72">
+        <v>79442</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="209" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="210">
+        <v>1753</v>
+      </c>
+      <c r="E15" s="211">
+        <v>90102</v>
+      </c>
+      <c r="F15" s="212" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="213">
+        <v>6616</v>
+      </c>
+      <c r="H15" s="72">
+        <v>79296</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="209" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="214">
+        <v>841</v>
+      </c>
+      <c r="E16" s="211">
+        <v>82010</v>
+      </c>
+      <c r="F16" s="212" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="213">
+        <v>2528</v>
+      </c>
+      <c r="H16" s="72">
+        <v>76781</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="216">
+        <v>335</v>
+      </c>
+      <c r="E17" s="217">
+        <v>81596</v>
+      </c>
+      <c r="F17" s="218" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="219">
+        <v>720</v>
+      </c>
+      <c r="H17" s="78">
+        <v>68388</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="220" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="221">
+        <v>26649</v>
+      </c>
+      <c r="E18" s="222">
+        <v>83304</v>
+      </c>
+      <c r="F18" s="223" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="224">
+        <v>91552</v>
+      </c>
+      <c r="H18" s="225">
+        <v>76506</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="226" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="226"/>
+      <c r="E19" s="227" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="208">
+        <v>7004302989</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58758EBD-7605-499F-AABD-21EA65B01E3E}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -12993,7 +15125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7E7C5B-FCDB-414E-AF89-475ED69DB36B}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -14068,7 +16200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CBB42-6F34-46C3-8EC6-0CB9CE10D272}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -15143,7 +17275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9820E99-1277-47D1-9533-FA2C3DB46983}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -16218,12 +18350,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16585,1231 +18717,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:J50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="56" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C8" s="57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="170" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="169" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="169" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="170" t="s">
-        <v>219</v>
-      </c>
-      <c r="H9" s="169" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="181" t="s">
-        <v>222</v>
-      </c>
-      <c r="D10" s="96">
-        <v>0</v>
-      </c>
-      <c r="E10" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="F10" s="171" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="96">
-        <v>0</v>
-      </c>
-      <c r="H10" s="173" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="99">
-        <v>0</v>
-      </c>
-      <c r="E11" s="175" t="s">
-        <v>223</v>
-      </c>
-      <c r="F11" s="182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="99">
-        <v>0</v>
-      </c>
-      <c r="H11" s="175" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="99">
-        <v>2</v>
-      </c>
-      <c r="E12" s="183">
-        <v>17399</v>
-      </c>
-      <c r="F12" s="182" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="99">
-        <v>9</v>
-      </c>
-      <c r="H12" s="183">
-        <v>24612</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="144" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="99">
-        <v>10</v>
-      </c>
-      <c r="E13" s="174">
-        <v>27738</v>
-      </c>
-      <c r="F13" s="182" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="99">
-        <v>28</v>
-      </c>
-      <c r="H13" s="174">
-        <v>21692</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="144" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="99">
-        <v>21</v>
-      </c>
-      <c r="E14" s="174">
-        <v>25978</v>
-      </c>
-      <c r="F14" s="182" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="99">
-        <v>84</v>
-      </c>
-      <c r="H14" s="174">
-        <v>24495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="144" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="99">
-        <v>47</v>
-      </c>
-      <c r="E15" s="174">
-        <v>26372</v>
-      </c>
-      <c r="F15" s="182" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="99">
-        <v>177</v>
-      </c>
-      <c r="H15" s="174">
-        <v>26020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="144" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="99">
-        <v>74</v>
-      </c>
-      <c r="E16" s="174">
-        <v>27179</v>
-      </c>
-      <c r="F16" s="182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="99">
-        <v>287</v>
-      </c>
-      <c r="H16" s="174">
-        <v>23626</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="99">
-        <v>95</v>
-      </c>
-      <c r="E17" s="174">
-        <v>23070</v>
-      </c>
-      <c r="F17" s="182" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="99">
-        <v>399</v>
-      </c>
-      <c r="H17" s="174">
-        <v>21769</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="144" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="99">
-        <v>143</v>
-      </c>
-      <c r="E18" s="174">
-        <v>25466</v>
-      </c>
-      <c r="F18" s="182" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="99">
-        <v>418</v>
-      </c>
-      <c r="H18" s="174">
-        <v>21873</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="144" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" s="99">
-        <v>98</v>
-      </c>
-      <c r="E19" s="174">
-        <v>24822</v>
-      </c>
-      <c r="F19" s="182" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" s="99">
-        <v>268</v>
-      </c>
-      <c r="H19" s="174">
-        <v>19749</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="144" t="s">
-        <v>225</v>
-      </c>
-      <c r="D20" s="99">
-        <v>41</v>
-      </c>
-      <c r="E20" s="174">
-        <v>21977</v>
-      </c>
-      <c r="F20" s="182" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="99">
-        <v>145</v>
-      </c>
-      <c r="H20" s="174">
-        <v>16070</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="144" t="s">
-        <v>226</v>
-      </c>
-      <c r="D21" s="99">
-        <v>19</v>
-      </c>
-      <c r="E21" s="174">
-        <v>19620</v>
-      </c>
-      <c r="F21" s="182" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="99">
-        <v>72</v>
-      </c>
-      <c r="H21" s="174">
-        <v>15890</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="99">
-        <v>13</v>
-      </c>
-      <c r="E22" s="174">
-        <v>23952</v>
-      </c>
-      <c r="F22" s="182" t="s">
-        <v>227</v>
-      </c>
-      <c r="G22" s="99">
-        <v>42</v>
-      </c>
-      <c r="H22" s="174">
-        <v>17635</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="184" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23" s="176">
-        <v>7</v>
-      </c>
-      <c r="E23" s="177">
-        <v>31175</v>
-      </c>
-      <c r="F23" s="179" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" s="176">
-        <v>42</v>
-      </c>
-      <c r="H23" s="177">
-        <v>19942</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="185"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185"/>
-      <c r="F24" s="185"/>
-      <c r="G24" s="185"/>
-      <c r="H24" s="185"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="165" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="186">
-        <v>570</v>
-      </c>
-      <c r="E25" s="187">
-        <v>24873</v>
-      </c>
-      <c r="F25" s="165" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="188">
-        <v>1971</v>
-      </c>
-      <c r="H25" s="189">
-        <v>21535</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C26" s="190"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-    </row>
-    <row r="27" spans="3:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="197" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="197"/>
-      <c r="E27" s="198">
-        <v>14177803</v>
-      </c>
-      <c r="F27" s="191" t="s">
-        <v>229</v>
-      </c>
-      <c r="G27" s="191"/>
-      <c r="H27" s="192">
-        <v>42446261</v>
-      </c>
-      <c r="J27" s="199">
-        <f>E27+H27</f>
-        <v>56624064</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="C29" s="56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="57" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="168" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="168"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="193" t="s">
-        <v>222</v>
-      </c>
-      <c r="D32" s="96">
-        <v>0</v>
-      </c>
-      <c r="E32" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="F32" s="193" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" s="96">
-        <v>0</v>
-      </c>
-      <c r="H32" s="173" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="194" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="99">
-        <v>1</v>
-      </c>
-      <c r="E33" s="183">
-        <v>34828</v>
-      </c>
-      <c r="F33" s="194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="99">
-        <v>1</v>
-      </c>
-      <c r="H33" s="183">
-        <v>38810</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="194" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="99">
-        <v>1</v>
-      </c>
-      <c r="E34" s="174">
-        <v>23307</v>
-      </c>
-      <c r="F34" s="194" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="99">
-        <v>6</v>
-      </c>
-      <c r="H34" s="174">
-        <v>37709</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="194" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="99">
-        <v>6</v>
-      </c>
-      <c r="E35" s="174">
-        <v>47359</v>
-      </c>
-      <c r="F35" s="194" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="99">
-        <v>8</v>
-      </c>
-      <c r="H35" s="174">
-        <v>45736</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="99">
-        <v>4</v>
-      </c>
-      <c r="E36" s="174">
-        <v>51867</v>
-      </c>
-      <c r="F36" s="194" t="s">
-        <v>28</v>
-      </c>
-      <c r="G36" s="99">
-        <v>13</v>
-      </c>
-      <c r="H36" s="174">
-        <v>47661</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="194" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="99">
-        <v>5</v>
-      </c>
-      <c r="E37" s="174">
-        <v>46164</v>
-      </c>
-      <c r="F37" s="194" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="99">
-        <v>34</v>
-      </c>
-      <c r="H37" s="174">
-        <v>42108</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="194" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="99">
-        <v>13</v>
-      </c>
-      <c r="E38" s="174">
-        <v>48918</v>
-      </c>
-      <c r="F38" s="194" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="99">
-        <v>61</v>
-      </c>
-      <c r="H38" s="174">
-        <v>37604</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="194" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="99">
-        <v>29</v>
-      </c>
-      <c r="E39" s="174">
-        <v>52887</v>
-      </c>
-      <c r="F39" s="194" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="99">
-        <v>87</v>
-      </c>
-      <c r="H39" s="174">
-        <v>40786</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="194" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="99">
-        <v>61</v>
-      </c>
-      <c r="E40" s="174">
-        <v>44234</v>
-      </c>
-      <c r="F40" s="194" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="99">
-        <v>128</v>
-      </c>
-      <c r="H40" s="174">
-        <v>40896</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="194" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="99">
-        <v>43</v>
-      </c>
-      <c r="E41" s="174">
-        <v>46917</v>
-      </c>
-      <c r="F41" s="194" t="s">
-        <v>224</v>
-      </c>
-      <c r="G41" s="99">
-        <v>94</v>
-      </c>
-      <c r="H41" s="174">
-        <v>39490</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="194" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="99">
-        <v>23</v>
-      </c>
-      <c r="E42" s="174">
-        <v>47347</v>
-      </c>
-      <c r="F42" s="194" t="s">
-        <v>225</v>
-      </c>
-      <c r="G42" s="99">
-        <v>38</v>
-      </c>
-      <c r="H42" s="174">
-        <v>35552</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="194" t="s">
-        <v>226</v>
-      </c>
-      <c r="D43" s="99">
-        <v>12</v>
-      </c>
-      <c r="E43" s="174">
-        <v>40823</v>
-      </c>
-      <c r="F43" s="194" t="s">
-        <v>226</v>
-      </c>
-      <c r="G43" s="99">
-        <v>32</v>
-      </c>
-      <c r="H43" s="174">
-        <v>32730</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="194" t="s">
-        <v>227</v>
-      </c>
-      <c r="D44" s="99">
-        <v>8</v>
-      </c>
-      <c r="E44" s="174">
-        <v>40246</v>
-      </c>
-      <c r="F44" s="194" t="s">
-        <v>227</v>
-      </c>
-      <c r="G44" s="99">
-        <v>17</v>
-      </c>
-      <c r="H44" s="174">
-        <v>38458</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C45" s="180" t="s">
-        <v>228</v>
-      </c>
-      <c r="D45" s="176">
-        <v>6</v>
-      </c>
-      <c r="E45" s="177">
-        <v>42004</v>
-      </c>
-      <c r="F45" s="180" t="s">
-        <v>228</v>
-      </c>
-      <c r="G45" s="176">
-        <v>14</v>
-      </c>
-      <c r="H45" s="177">
-        <v>40664</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C46" s="185"/>
-      <c r="D46" s="185"/>
-      <c r="E46" s="185"/>
-      <c r="F46" s="185"/>
-      <c r="G46" s="185"/>
-      <c r="H46" s="185"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="195">
-        <v>212</v>
-      </c>
-      <c r="E47" s="187">
-        <v>46315</v>
-      </c>
-      <c r="F47" s="194" t="s">
-        <v>110</v>
-      </c>
-      <c r="G47" s="196">
-        <v>533</v>
-      </c>
-      <c r="H47" s="189">
-        <v>39574</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C48" s="190"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="190"/>
-      <c r="F48" s="190"/>
-      <c r="G48" s="190"/>
-      <c r="H48" s="190"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="191" t="s">
-        <v>229</v>
-      </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="139">
-        <v>9818763</v>
-      </c>
-      <c r="F49" s="191" t="s">
-        <v>229</v>
-      </c>
-      <c r="G49" s="191"/>
-      <c r="H49" s="192">
-        <v>21092711</v>
-      </c>
-      <c r="J49" s="199">
-        <f>E49+H49</f>
-        <v>30911474</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
-        <v>232</v>
-      </c>
-      <c r="J50" s="199">
-        <f>J27+J49</f>
-        <v>87535538</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F27:G27"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="20.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="48.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="169" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" s="170" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="169" t="s">
-        <v>181</v>
-      </c>
-      <c r="F7" s="169" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="170" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="169" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="171" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" s="96">
-        <v>5</v>
-      </c>
-      <c r="E8" s="172">
-        <v>22279</v>
-      </c>
-      <c r="F8" s="173" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="96">
-        <v>6</v>
-      </c>
-      <c r="H8" s="172">
-        <v>22348</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="141" t="s">
-        <v>185</v>
-      </c>
-      <c r="D9" s="99">
-        <v>4</v>
-      </c>
-      <c r="E9" s="174">
-        <v>7527</v>
-      </c>
-      <c r="F9" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="99">
-        <v>8</v>
-      </c>
-      <c r="H9" s="174">
-        <v>23749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="141" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="99">
-        <v>11</v>
-      </c>
-      <c r="E10" s="174">
-        <v>19875</v>
-      </c>
-      <c r="F10" s="175" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="99">
-        <v>12</v>
-      </c>
-      <c r="H10" s="174">
-        <v>18579</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="141" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="99">
-        <v>10</v>
-      </c>
-      <c r="E11" s="174">
-        <v>23717</v>
-      </c>
-      <c r="F11" s="175" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="99">
-        <v>18</v>
-      </c>
-      <c r="H11" s="174">
-        <v>18950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="141" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="99">
-        <v>17</v>
-      </c>
-      <c r="E12" s="174">
-        <v>14713</v>
-      </c>
-      <c r="F12" s="175" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="99">
-        <v>18</v>
-      </c>
-      <c r="H12" s="174">
-        <v>17778</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="99">
-        <v>26</v>
-      </c>
-      <c r="E13" s="174">
-        <v>11121</v>
-      </c>
-      <c r="F13" s="175" t="s">
-        <v>189</v>
-      </c>
-      <c r="G13" s="99">
-        <v>55</v>
-      </c>
-      <c r="H13" s="174">
-        <v>17735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="141" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="99">
-        <v>34</v>
-      </c>
-      <c r="E14" s="174">
-        <v>19499</v>
-      </c>
-      <c r="F14" s="175" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="99">
-        <v>86</v>
-      </c>
-      <c r="H14" s="174">
-        <v>23305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="99">
-        <v>58</v>
-      </c>
-      <c r="E15" s="174">
-        <v>23496</v>
-      </c>
-      <c r="F15" s="175" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="99">
-        <v>124</v>
-      </c>
-      <c r="H15" s="174">
-        <v>32978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="141" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="99">
-        <v>129</v>
-      </c>
-      <c r="E16" s="174">
-        <v>31148</v>
-      </c>
-      <c r="F16" s="175" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="99">
-        <v>311</v>
-      </c>
-      <c r="H16" s="174">
-        <v>40331</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="141" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="99">
-        <v>188</v>
-      </c>
-      <c r="E17" s="174">
-        <v>35706</v>
-      </c>
-      <c r="F17" s="175" t="s">
-        <v>193</v>
-      </c>
-      <c r="G17" s="99">
-        <v>461</v>
-      </c>
-      <c r="H17" s="174">
-        <v>40254</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="141" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="99">
-        <v>165</v>
-      </c>
-      <c r="E18" s="174">
-        <v>28365</v>
-      </c>
-      <c r="F18" s="175" t="s">
-        <v>194</v>
-      </c>
-      <c r="G18" s="99">
-        <v>455</v>
-      </c>
-      <c r="H18" s="174">
-        <v>38767</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="99">
-        <v>170</v>
-      </c>
-      <c r="E19" s="174">
-        <v>26154</v>
-      </c>
-      <c r="F19" s="175" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="99">
-        <v>518</v>
-      </c>
-      <c r="H19" s="174">
-        <v>36137</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="141" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="99">
-        <v>195</v>
-      </c>
-      <c r="E20" s="174">
-        <v>25090</v>
-      </c>
-      <c r="F20" s="175" t="s">
-        <v>196</v>
-      </c>
-      <c r="G20" s="99">
-        <v>517</v>
-      </c>
-      <c r="H20" s="174">
-        <v>33809</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="179" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="176">
-        <v>255</v>
-      </c>
-      <c r="E21" s="177">
-        <v>25332</v>
-      </c>
-      <c r="F21" s="180" t="s">
-        <v>197</v>
-      </c>
-      <c r="G21" s="176">
-        <v>605</v>
-      </c>
-      <c r="H21" s="177">
-        <v>29337</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="150">
-        <v>1267</v>
-      </c>
-      <c r="E22" s="151">
-        <v>27128</v>
-      </c>
-      <c r="F22" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="150">
-        <v>3194</v>
-      </c>
-      <c r="H22" s="151">
-        <v>34741</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="89"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="3:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="178" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="151">
-        <v>34371598</v>
-      </c>
-      <c r="F24" s="178" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="178"/>
-      <c r="H24" s="151">
-        <v>110963139</v>
-      </c>
-      <c r="J24" s="84">
-        <f>SUM(E24,H24)</f>
-        <v>145334737</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="TOC!A1" display="TOC" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Inputs_data/NYCTRS_MemberData_AV2016.xlsx
+++ b/Inputs_data/NYCTRS_MemberData_AV2016.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3C4514-0954-4A72-B7C6-778822800CA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57AFD8-CBBB-4A66-85A1-3DC233B59242}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15840" tabRatio="770" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -2911,18 +2911,102 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
     </xf>
@@ -2952,90 +3036,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="15"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3955,10 +3955,10 @@
       <c r="E27" s="184">
         <v>14177803</v>
       </c>
-      <c r="F27" s="186" t="s">
+      <c r="F27" s="215" t="s">
         <v>229</v>
       </c>
-      <c r="G27" s="186"/>
+      <c r="G27" s="215"/>
       <c r="H27" s="178">
         <v>42446261</v>
       </c>
@@ -4310,17 +4310,17 @@
       <c r="H48" s="177"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="186" t="s">
+      <c r="C49" s="215" t="s">
         <v>229</v>
       </c>
-      <c r="D49" s="186"/>
+      <c r="D49" s="215"/>
       <c r="E49" s="130">
         <v>9818763</v>
       </c>
-      <c r="F49" s="186" t="s">
+      <c r="F49" s="215" t="s">
         <v>229</v>
       </c>
-      <c r="G49" s="186"/>
+      <c r="G49" s="215"/>
       <c r="H49" s="178">
         <v>21092711</v>
       </c>
@@ -10221,10 +10221,10 @@
       <c r="E6" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="187" t="s">
+      <c r="F6" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="187"/>
+      <c r="G6" s="212"/>
     </row>
     <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="98" t="s">
@@ -10543,15 +10543,15 @@
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="188" t="s">
+      <c r="B24" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="188"/>
-      <c r="E24" s="189" t="s">
+      <c r="C24" s="217"/>
+      <c r="D24" s="217"/>
+      <c r="E24" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="F24" s="189"/>
+      <c r="F24" s="216"/>
       <c r="G24" s="120">
         <v>42446261</v>
       </c>
@@ -10570,17 +10570,17 @@
       <c r="B30" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="187" t="s">
+      <c r="C30" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="187"/>
+      <c r="D30" s="212"/>
       <c r="E30" s="58" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="190" t="s">
+      <c r="F30" s="218" t="s">
         <v>178</v>
       </c>
-      <c r="G30" s="190"/>
+      <c r="G30" s="218"/>
     </row>
     <row r="31" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="101" t="s">
@@ -10899,17 +10899,17 @@
       <c r="G47" s="87"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="189" t="s">
+      <c r="B48" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="189"/>
+      <c r="C48" s="216"/>
       <c r="D48" s="124">
         <v>9818763</v>
       </c>
-      <c r="E48" s="189" t="s">
+      <c r="E48" s="216" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="189"/>
+      <c r="F48" s="216"/>
       <c r="G48" s="120">
         <v>21092711</v>
       </c>
@@ -11293,17 +11293,17 @@
       <c r="G22" s="87"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="191" t="s">
+      <c r="B23" s="219" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="191"/>
+      <c r="C23" s="219"/>
       <c r="D23" s="142">
         <v>34371598</v>
       </c>
-      <c r="E23" s="191" t="s">
+      <c r="E23" s="219" t="s">
         <v>198</v>
       </c>
-      <c r="F23" s="191"/>
+      <c r="F23" s="219"/>
       <c r="G23" s="142">
         <v>110963139</v>
       </c>
@@ -11352,26 +11352,26 @@
       <c r="B6" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="192" t="s">
+      <c r="C6" s="220" t="s">
         <v>206</v>
       </c>
-      <c r="D6" s="192"/>
-      <c r="E6" s="193" t="s">
+      <c r="D6" s="220"/>
+      <c r="E6" s="221" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="193"/>
-      <c r="G6" s="192" t="s">
+      <c r="F6" s="221"/>
+      <c r="G6" s="220" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="192"/>
-      <c r="I6" s="193" t="s">
+      <c r="H6" s="220"/>
+      <c r="I6" s="221" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="193"/>
-      <c r="K6" s="194" t="s">
+      <c r="J6" s="221"/>
+      <c r="K6" s="222" t="s">
         <v>210</v>
       </c>
-      <c r="L6" s="194"/>
+      <c r="L6" s="222"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="128" t="s">
@@ -11919,31 +11919,31 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="196" t="s">
+      <c r="C5" s="224" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="87"/>
-      <c r="E5" s="197" t="s">
+      <c r="E5" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
       <c r="I5" s="87"/>
-      <c r="J5" s="198" t="s">
+      <c r="J5" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="198"/>
-      <c r="L5" s="198"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
       <c r="M5" s="87"/>
       <c r="N5" s="87"/>
     </row>
     <row r="6" spans="1:14" ht="54" x14ac:dyDescent="0.25">
-      <c r="B6" s="195"/>
-      <c r="C6" s="196"/>
+      <c r="B6" s="223"/>
+      <c r="C6" s="224"/>
       <c r="D6" s="88" t="s">
         <v>146</v>
       </c>
@@ -11971,10 +11971,10 @@
       <c r="L6" s="90" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="199" t="s">
+      <c r="M6" s="227" t="s">
         <v>155</v>
       </c>
-      <c r="N6" s="199"/>
+      <c r="N6" s="227"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="91">
@@ -12402,7 +12402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF8EEF1-1866-4910-AE47-59453CB830C5}">
   <dimension ref="C3:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -12423,55 +12423,55 @@
       </c>
     </row>
     <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="186" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="211" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="202" t="s">
+      <c r="E6" s="211"/>
+      <c r="F6" s="187" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="187" t="s">
+      <c r="G6" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="187"/>
+      <c r="H6" s="212"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="188" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="189">
         <v>486</v>
       </c>
-      <c r="E7" s="205">
+      <c r="E7" s="190">
         <v>49321</v>
       </c>
-      <c r="F7" s="206" t="s">
+      <c r="F7" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="207">
+      <c r="G7" s="192">
         <v>1790</v>
       </c>
-      <c r="H7" s="208">
+      <c r="H7" s="193">
         <v>50023</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="194" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="210">
+      <c r="D8" s="195">
         <v>2769</v>
       </c>
-      <c r="E8" s="211">
+      <c r="E8" s="196">
         <v>60106</v>
       </c>
-      <c r="F8" s="212" t="s">
+      <c r="F8" s="197" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="213">
+      <c r="G8" s="198">
         <v>10599</v>
       </c>
       <c r="H8" s="72">
@@ -12479,19 +12479,19 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="209" t="s">
+      <c r="C9" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="210">
+      <c r="D9" s="195">
         <v>3876</v>
       </c>
-      <c r="E9" s="211">
+      <c r="E9" s="196">
         <v>73936</v>
       </c>
-      <c r="F9" s="212" t="s">
+      <c r="F9" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="213">
+      <c r="G9" s="198">
         <v>13101</v>
       </c>
       <c r="H9" s="72">
@@ -12499,19 +12499,19 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="209" t="s">
+      <c r="C10" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="210">
+      <c r="D10" s="195">
         <v>4007</v>
       </c>
-      <c r="E10" s="211">
+      <c r="E10" s="196">
         <v>83966</v>
       </c>
-      <c r="F10" s="212" t="s">
+      <c r="F10" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="213">
+      <c r="G10" s="198">
         <v>12813</v>
       </c>
       <c r="H10" s="72">
@@ -12519,19 +12519,19 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="209" t="s">
+      <c r="C11" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="210">
+      <c r="D11" s="195">
         <v>3639</v>
       </c>
-      <c r="E11" s="211">
+      <c r="E11" s="196">
         <v>89560</v>
       </c>
-      <c r="F11" s="212" t="s">
+      <c r="F11" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="213">
+      <c r="G11" s="198">
         <v>11781</v>
       </c>
       <c r="H11" s="72">
@@ -12539,19 +12539,19 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="210">
+      <c r="D12" s="195">
         <v>3417</v>
       </c>
-      <c r="E12" s="211">
+      <c r="E12" s="196">
         <v>91446</v>
       </c>
-      <c r="F12" s="212" t="s">
+      <c r="F12" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="213">
+      <c r="G12" s="198">
         <v>11430</v>
       </c>
       <c r="H12" s="72">
@@ -12559,19 +12559,19 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="209" t="s">
+      <c r="C13" s="194" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="210">
+      <c r="D13" s="195">
         <v>3021</v>
       </c>
-      <c r="E13" s="211">
+      <c r="E13" s="196">
         <v>93611</v>
       </c>
-      <c r="F13" s="212" t="s">
+      <c r="F13" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="198">
         <v>10784</v>
       </c>
       <c r="H13" s="72">
@@ -12579,19 +12579,19 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="209" t="s">
+      <c r="C14" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="210">
+      <c r="D14" s="195">
         <v>2505</v>
       </c>
-      <c r="E14" s="211">
+      <c r="E14" s="196">
         <v>92257</v>
       </c>
-      <c r="F14" s="212" t="s">
+      <c r="F14" s="197" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="213">
+      <c r="G14" s="198">
         <v>9390</v>
       </c>
       <c r="H14" s="72">
@@ -12599,19 +12599,19 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="209" t="s">
+      <c r="C15" s="194" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="210">
+      <c r="D15" s="195">
         <v>1753</v>
       </c>
-      <c r="E15" s="211">
+      <c r="E15" s="196">
         <v>90102</v>
       </c>
-      <c r="F15" s="212" t="s">
+      <c r="F15" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="213">
+      <c r="G15" s="198">
         <v>6616</v>
       </c>
       <c r="H15" s="72">
@@ -12619,19 +12619,19 @@
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="214">
+      <c r="D16" s="199">
         <v>841</v>
       </c>
-      <c r="E16" s="211">
+      <c r="E16" s="196">
         <v>82010</v>
       </c>
-      <c r="F16" s="212" t="s">
+      <c r="F16" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="213">
+      <c r="G16" s="198">
         <v>2528</v>
       </c>
       <c r="H16" s="72">
@@ -12639,19 +12639,19 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="215" t="s">
+      <c r="C17" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="216">
+      <c r="D17" s="201">
         <v>335</v>
       </c>
-      <c r="E17" s="217">
+      <c r="E17" s="202">
         <v>81596</v>
       </c>
-      <c r="F17" s="218" t="s">
+      <c r="F17" s="203" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="219">
+      <c r="G17" s="204">
         <v>720</v>
       </c>
       <c r="H17" s="78">
@@ -12659,36 +12659,36 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="221">
+      <c r="D18" s="206">
         <v>26649</v>
       </c>
-      <c r="E18" s="222">
+      <c r="E18" s="207">
         <v>83304</v>
       </c>
-      <c r="F18" s="223" t="s">
+      <c r="F18" s="208" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="224">
+      <c r="G18" s="209">
         <v>91552</v>
       </c>
-      <c r="H18" s="225">
+      <c r="H18" s="210">
         <v>76506</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="213" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="226"/>
-      <c r="E19" s="227" t="s">
+      <c r="D19" s="213"/>
+      <c r="E19" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="208">
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="193">
         <v>7004302989</v>
       </c>
     </row>
@@ -12707,8 +12707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13772,7 +13772,7 @@
   <dimension ref="C3:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13792,55 +13792,55 @@
       </c>
     </row>
     <row r="6" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="200" t="s">
+      <c r="C6" s="186" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="201" t="s">
+      <c r="D6" s="211" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="201"/>
-      <c r="F6" s="202" t="s">
+      <c r="E6" s="211"/>
+      <c r="F6" s="187" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="187" t="s">
+      <c r="G6" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="H6" s="187"/>
+      <c r="H6" s="212"/>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="203" t="s">
+      <c r="C7" s="188" t="s">
         <v>236</v>
       </c>
-      <c r="D7" s="204">
+      <c r="D7" s="189">
         <v>486</v>
       </c>
-      <c r="E7" s="205">
+      <c r="E7" s="190">
         <v>49321</v>
       </c>
-      <c r="F7" s="206" t="s">
+      <c r="F7" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="G7" s="207">
+      <c r="G7" s="192">
         <v>1790</v>
       </c>
-      <c r="H7" s="208">
+      <c r="H7" s="193">
         <v>50023</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="194" t="s">
         <v>237</v>
       </c>
-      <c r="D8" s="210">
+      <c r="D8" s="195">
         <v>2769</v>
       </c>
-      <c r="E8" s="211">
+      <c r="E8" s="196">
         <v>60106</v>
       </c>
-      <c r="F8" s="212" t="s">
+      <c r="F8" s="197" t="s">
         <v>237</v>
       </c>
-      <c r="G8" s="213">
+      <c r="G8" s="198">
         <v>10599</v>
       </c>
       <c r="H8" s="72">
@@ -13848,19 +13848,19 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="209" t="s">
+      <c r="C9" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="210">
+      <c r="D9" s="195">
         <v>3876</v>
       </c>
-      <c r="E9" s="211">
+      <c r="E9" s="196">
         <v>73936</v>
       </c>
-      <c r="F9" s="212" t="s">
+      <c r="F9" s="197" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="213">
+      <c r="G9" s="198">
         <v>13101</v>
       </c>
       <c r="H9" s="72">
@@ -13868,19 +13868,19 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="209" t="s">
+      <c r="C10" s="194" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="210">
+      <c r="D10" s="195">
         <v>4007</v>
       </c>
-      <c r="E10" s="211">
+      <c r="E10" s="196">
         <v>83966</v>
       </c>
-      <c r="F10" s="212" t="s">
+      <c r="F10" s="197" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="213">
+      <c r="G10" s="198">
         <v>12813</v>
       </c>
       <c r="H10" s="72">
@@ -13888,19 +13888,19 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="209" t="s">
+      <c r="C11" s="194" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="210">
+      <c r="D11" s="195">
         <v>3639</v>
       </c>
-      <c r="E11" s="211">
+      <c r="E11" s="196">
         <v>89560</v>
       </c>
-      <c r="F11" s="212" t="s">
+      <c r="F11" s="197" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="213">
+      <c r="G11" s="198">
         <v>11781</v>
       </c>
       <c r="H11" s="72">
@@ -13908,19 +13908,19 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="209" t="s">
+      <c r="C12" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="210">
+      <c r="D12" s="195">
         <v>3417</v>
       </c>
-      <c r="E12" s="211">
+      <c r="E12" s="196">
         <v>91446</v>
       </c>
-      <c r="F12" s="212" t="s">
+      <c r="F12" s="197" t="s">
         <v>129</v>
       </c>
-      <c r="G12" s="213">
+      <c r="G12" s="198">
         <v>11430</v>
       </c>
       <c r="H12" s="72">
@@ -13928,19 +13928,19 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="209" t="s">
+      <c r="C13" s="194" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="210">
+      <c r="D13" s="195">
         <v>3021</v>
       </c>
-      <c r="E13" s="211">
+      <c r="E13" s="196">
         <v>93611</v>
       </c>
-      <c r="F13" s="212" t="s">
+      <c r="F13" s="197" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="213">
+      <c r="G13" s="198">
         <v>10784</v>
       </c>
       <c r="H13" s="72">
@@ -13948,19 +13948,19 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="209" t="s">
+      <c r="C14" s="194" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="210">
+      <c r="D14" s="195">
         <v>2505</v>
       </c>
-      <c r="E14" s="211">
+      <c r="E14" s="196">
         <v>92257</v>
       </c>
-      <c r="F14" s="212" t="s">
+      <c r="F14" s="197" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="213">
+      <c r="G14" s="198">
         <v>9390</v>
       </c>
       <c r="H14" s="72">
@@ -13968,19 +13968,19 @@
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="209" t="s">
+      <c r="C15" s="194" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="210">
+      <c r="D15" s="195">
         <v>1753</v>
       </c>
-      <c r="E15" s="211">
+      <c r="E15" s="196">
         <v>90102</v>
       </c>
-      <c r="F15" s="212" t="s">
+      <c r="F15" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="213">
+      <c r="G15" s="198">
         <v>6616</v>
       </c>
       <c r="H15" s="72">
@@ -13988,19 +13988,19 @@
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="209" t="s">
+      <c r="C16" s="194" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="214">
+      <c r="D16" s="199">
         <v>841</v>
       </c>
-      <c r="E16" s="211">
+      <c r="E16" s="196">
         <v>82010</v>
       </c>
-      <c r="F16" s="212" t="s">
+      <c r="F16" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="G16" s="213">
+      <c r="G16" s="198">
         <v>2528</v>
       </c>
       <c r="H16" s="72">
@@ -14008,19 +14008,19 @@
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="215" t="s">
+      <c r="C17" s="200" t="s">
         <v>238</v>
       </c>
-      <c r="D17" s="216">
+      <c r="D17" s="201">
         <v>335</v>
       </c>
-      <c r="E17" s="217">
+      <c r="E17" s="202">
         <v>81596</v>
       </c>
-      <c r="F17" s="218" t="s">
+      <c r="F17" s="203" t="s">
         <v>238</v>
       </c>
-      <c r="G17" s="219">
+      <c r="G17" s="204">
         <v>720</v>
       </c>
       <c r="H17" s="78">
@@ -14028,36 +14028,36 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="220" t="s">
+      <c r="C18" s="205" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="221">
+      <c r="D18" s="206">
         <v>26649</v>
       </c>
-      <c r="E18" s="222">
+      <c r="E18" s="207">
         <v>83304</v>
       </c>
-      <c r="F18" s="223" t="s">
+      <c r="F18" s="208" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="224">
+      <c r="G18" s="209">
         <v>91552</v>
       </c>
-      <c r="H18" s="225">
+      <c r="H18" s="210">
         <v>76506</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="226" t="s">
+      <c r="C19" s="213" t="s">
         <v>239</v>
       </c>
-      <c r="D19" s="226"/>
-      <c r="E19" s="227" t="s">
+      <c r="D19" s="213"/>
+      <c r="E19" s="214" t="s">
         <v>240</v>
       </c>
-      <c r="F19" s="227"/>
-      <c r="G19" s="227"/>
-      <c r="H19" s="208">
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="193">
         <v>7004302989</v>
       </c>
     </row>
